--- a/public/assets/family-pc.xlsx
+++ b/public/assets/family-pc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69508CA2-92C4-4D45-A0F1-844E3BBAC31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366EE8DC-CAD1-AD41-8E14-A3161B05B3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A5B48C7D-BD5F-0940-8CF5-C2DDE34DC880}"/>
   </bookViews>
@@ -261,9 +261,6 @@
     <t>1. 表格上所有有颜色的部分均不需要填写，不得修改，已设置公式自动计算；</t>
   </si>
   <si>
-    <t>2. 请填写表格上无颜色部分，可做适度修改，增加未列项，可在无颜色表格中小计前一行无颜色行上插入增加行。</t>
-  </si>
-  <si>
     <t>家庭资产负债表</t>
   </si>
   <si>
@@ -464,6 +461,9 @@
   </si>
   <si>
     <t>总负债</t>
+  </si>
+  <si>
+    <t>2. 请填写表格上无颜色部分。不可增加行与列，有空白行的可直接填写内容，没有空白又还有内容需增加的合并在相关项填写。</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +1886,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1912,7 +1912,7 @@
       <c r="H1" s="62"/>
       <c r="I1" s="63"/>
       <c r="K1" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L1" s="62"/>
       <c r="M1" s="62"/>
@@ -1940,12 +1940,12 @@
       <c r="H2" s="66"/>
       <c r="I2" s="67"/>
       <c r="K2" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O2" s="65"/>
       <c r="P2" s="65"/>
@@ -1994,7 +1994,7 @@
         <v>5</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>6</v>
@@ -2033,32 +2033,32 @@
         <v>13</v>
       </c>
       <c r="K4" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="25" t="s">
         <v>61</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>62</v>
       </c>
       <c r="M4" s="6">
         <v>120</v>
       </c>
       <c r="N4" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="P4" s="6">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R4" s="26">
         <f>P28/M28</f>
         <v>0.16901408450704225</v>
       </c>
       <c r="S4" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="17">
@@ -2088,27 +2088,27 @@
       </c>
       <c r="K5" s="88"/>
       <c r="L5" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M5" s="6">
         <v>10</v>
       </c>
       <c r="N5" s="91"/>
       <c r="O5" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P5" s="6">
         <v>2</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R5" s="26">
         <f>M26/M27</f>
         <v>0.31638418079096048</v>
       </c>
       <c r="S5" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="17">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="K6" s="88"/>
       <c r="L6" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M6" s="6">
         <v>8</v>
@@ -2151,14 +2151,14 @@
         <v>2</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R6" s="27">
         <f>M20/P27</f>
         <v>3.36</v>
       </c>
       <c r="S6" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="36">
@@ -2184,7 +2184,7 @@
       <c r="I7" s="82"/>
       <c r="K7" s="88"/>
       <c r="L7" s="118" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M7" s="6">
         <v>1</v>
@@ -2232,7 +2232,7 @@
       <c r="O8" s="25"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="83" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R8" s="92"/>
       <c r="S8" s="93"/>
@@ -2257,10 +2257,10 @@
       <c r="H9" s="54"/>
       <c r="I9" s="55"/>
       <c r="K9" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>77</v>
       </c>
       <c r="M9" s="6">
         <v>10</v>
@@ -2366,16 +2366,16 @@
       <c r="H12" s="57"/>
       <c r="I12" s="58"/>
       <c r="K12" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="M12" s="6">
         <v>12</v>
       </c>
       <c r="N12" s="90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O12" s="25" t="s">
         <v>19</v>
@@ -2409,14 +2409,14 @@
       <c r="I13" s="52"/>
       <c r="K13" s="88"/>
       <c r="L13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M13" s="6">
         <v>2</v>
       </c>
       <c r="N13" s="91"/>
       <c r="O13" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P13" s="6">
         <v>2</v>
@@ -2444,7 +2444,7 @@
       <c r="I14" s="55"/>
       <c r="K14" s="88"/>
       <c r="L14" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M14" s="6">
         <v>2</v>
@@ -2483,7 +2483,7 @@
       <c r="I15" s="55"/>
       <c r="K15" s="88"/>
       <c r="L15" s="118" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M15" s="6">
         <v>1</v>
@@ -2492,7 +2492,7 @@
       <c r="O15" s="31"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="98" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R15" s="99"/>
       <c r="S15" s="100"/>
@@ -2551,10 +2551,10 @@
       <c r="H17" s="57"/>
       <c r="I17" s="58"/>
       <c r="K17" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="25" t="s">
         <v>86</v>
-      </c>
-      <c r="L17" s="25" t="s">
-        <v>87</v>
       </c>
       <c r="M17" s="6">
         <v>2</v>
@@ -2588,7 +2588,7 @@
       <c r="I18" s="52"/>
       <c r="K18" s="102"/>
       <c r="L18" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M18" s="6">
         <v>2</v>
@@ -2620,7 +2620,7 @@
       <c r="I19" s="55"/>
       <c r="K19" s="102"/>
       <c r="L19" s="118" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M19" s="6">
         <v>3</v>
@@ -2695,19 +2695,19 @@
       <c r="H21" s="54"/>
       <c r="I21" s="55"/>
       <c r="K21" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="119" t="s">
         <v>90</v>
-      </c>
-      <c r="L21" s="119" t="s">
-        <v>91</v>
       </c>
       <c r="M21" s="6">
         <v>2</v>
       </c>
       <c r="N21" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="O21" s="25" t="s">
         <v>92</v>
-      </c>
-      <c r="O21" s="25" t="s">
-        <v>93</v>
       </c>
       <c r="P21" s="32">
         <v>2</v>
@@ -2738,20 +2738,20 @@
       <c r="I22" s="73"/>
       <c r="K22" s="102"/>
       <c r="L22" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M22" s="6">
         <v>3</v>
       </c>
       <c r="N22" s="91"/>
       <c r="O22" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P22" s="32">
         <v>2</v>
       </c>
       <c r="Q22" s="106" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R22" s="99"/>
       <c r="S22" s="100"/>
@@ -2791,7 +2791,7 @@
       <c r="I24" s="21"/>
       <c r="K24" s="102"/>
       <c r="L24" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M24" s="6">
         <v>3</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="25" spans="1:19" ht="17">
       <c r="A25" s="46" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -2840,7 +2840,7 @@
         <v>49</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M26" s="36">
         <f>M11+M16</f>
@@ -2861,14 +2861,14 @@
     <row r="27" spans="1:19" ht="17">
       <c r="K27" s="110"/>
       <c r="L27" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M27" s="38">
         <f>M28-P28</f>
         <v>177</v>
       </c>
       <c r="N27" s="114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O27" s="115"/>
       <c r="P27" s="38">
@@ -2882,14 +2882,14 @@
     <row r="28" spans="1:19" ht="17">
       <c r="K28" s="111"/>
       <c r="L28" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M28" s="39">
         <f>SUM(M8,M11,M16,M20,M25)</f>
         <v>213</v>
       </c>
       <c r="N28" s="116" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O28" s="117"/>
       <c r="P28" s="39">
@@ -2928,7 +2928,7 @@
     </row>
     <row r="31" spans="1:19" ht="17">
       <c r="K31" s="44" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>

--- a/public/assets/family-pc.xlsx
+++ b/public/assets/family-pc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12660"/>
+    <workbookView windowWidth="20080" windowHeight="24520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,14 +243,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑 Light"/>
-        <charset val="134"/>
-      </rPr>
-      <t>财务负担比=年度负债性支出/年度总支出</t>
+      <t>财务负担比=年度负债性支出/年度总收入</t>
     </r>
     <r>
       <rPr>
@@ -445,11 +438,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -537,6 +530,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -545,8 +576,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,58 +652,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -620,17 +660,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,53 +680,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="49">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -793,192 +786,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="55">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1418,6 +1381,19 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1511,7 +1487,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1520,7 +1511,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1540,17 +1546,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1569,188 +1580,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1770,7 +1746,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1782,7 +1758,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1800,7 +1776,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1815,7 +1791,7 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1824,7 +1800,7 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1842,7 +1818,7 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1854,7 +1830,7 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1884,7 +1860,7 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1930,7 +1906,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1986,10 +1962,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2001,13 +1977,16 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2016,37 +1995,37 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2070,25 +2049,25 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2418,11 +2397,11 @@
   <sheetPr/>
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.8"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
   <cols>
     <col min="3" max="3" width="12.1617647058824" customWidth="1"/>
     <col min="6" max="6" width="12.1617647058824" customWidth="1"/>
@@ -2454,7 +2433,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
-      <c r="S1" s="101"/>
+      <c r="S1" s="102"/>
     </row>
     <row r="2" ht="20.4" spans="1:19">
       <c r="A2" s="3" t="s">
@@ -2488,7 +2467,7 @@
       <c r="R2" s="30"/>
       <c r="S2" s="50"/>
     </row>
-    <row r="3" ht="16.8" spans="1:19">
+    <row r="3" spans="1:19">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -2578,15 +2557,15 @@
       <c r="Q4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="102" t="e">
+      <c r="R4" s="103" t="e">
         <f>P28/M28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S4" s="103" t="s">
+      <c r="S4" s="104" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="16.8" spans="1:19">
+    <row r="5" spans="1:19">
       <c r="A5" s="13"/>
       <c r="B5" s="10" t="s">
         <v>24</v>
@@ -2601,7 +2580,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="33" t="e">
-        <f>F21/F22</f>
+        <f>F21/C22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I5" s="52" t="s">
@@ -2620,15 +2599,15 @@
       <c r="Q5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="102" t="e">
+      <c r="R5" s="103" t="e">
         <f>M26/M27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S5" s="103" t="s">
+      <c r="S5" s="104" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" ht="16.8" spans="1:19">
+    <row r="6" spans="1:19">
       <c r="A6" s="13"/>
       <c r="B6" s="10" t="s">
         <v>32</v>
@@ -2662,15 +2641,15 @@
       <c r="Q6" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="103" t="e">
+      <c r="R6" s="104" t="e">
         <f>M20/P27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S6" s="103" t="s">
+      <c r="S6" s="104" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" ht="17" spans="1:19">
+    <row r="7" spans="1:19">
       <c r="A7" s="13"/>
       <c r="B7" s="10" t="s">
         <v>39</v>
@@ -2705,7 +2684,7 @@
       <c r="R7" s="36"/>
       <c r="S7" s="57"/>
     </row>
-    <row r="8" ht="16.8" spans="1:19">
+    <row r="8" spans="1:19">
       <c r="A8" s="13"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -2735,8 +2714,8 @@
       <c r="Q8" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="R8" s="104"/>
-      <c r="S8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="106"/>
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:19">
       <c r="A9" s="13"/>
@@ -2765,11 +2744,11 @@
       <c r="N9" s="84"/>
       <c r="O9" s="54"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="108"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="109"/>
     </row>
-    <row r="10" ht="16.8" spans="1:19">
+    <row r="10" spans="1:19">
       <c r="A10" s="9" t="s">
         <v>51</v>
       </c>
@@ -2796,11 +2775,11 @@
       <c r="N10" s="84"/>
       <c r="O10" s="54"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="108"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="109"/>
     </row>
-    <row r="11" ht="16.8" spans="1:19">
+    <row r="11" spans="1:19">
       <c r="A11" s="13"/>
       <c r="B11" s="10" t="s">
         <v>52</v>
@@ -2832,9 +2811,9 @@
         <f>SUM(P4:P10)</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="108"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="108"/>
+      <c r="S11" s="109"/>
     </row>
     <row r="12" ht="17" customHeight="1" spans="1:19">
       <c r="A12" s="13"/>
@@ -2864,11 +2843,11 @@
         <v>33</v>
       </c>
       <c r="P12" s="11"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="108"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="108"/>
+      <c r="S12" s="109"/>
     </row>
-    <row r="13" ht="16.8" spans="1:19">
+    <row r="13" spans="1:19">
       <c r="A13" s="13"/>
       <c r="B13" s="10" t="s">
         <v>60</v>
@@ -2894,11 +2873,11 @@
         <v>64</v>
       </c>
       <c r="P13" s="11"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="108"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="109"/>
     </row>
-    <row r="14" ht="16.8" spans="1:19">
+    <row r="14" spans="1:19">
       <c r="A14" s="13"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
@@ -2923,11 +2902,11 @@
         <v>43</v>
       </c>
       <c r="P14" s="11"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="108"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="108"/>
+      <c r="S14" s="109"/>
     </row>
-    <row r="15" ht="17" spans="1:19">
+    <row r="15" spans="1:19">
       <c r="A15" s="18"/>
       <c r="B15" s="16" t="s">
         <v>40</v>
@@ -2954,13 +2933,13 @@
       <c r="N15" s="84"/>
       <c r="O15" s="87"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="109" t="s">
+      <c r="Q15" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="R15" s="110"/>
-      <c r="S15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="112"/>
     </row>
-    <row r="16" ht="16.8" spans="1:19">
+    <row r="16" spans="1:19">
       <c r="A16" s="13" t="s">
         <v>70</v>
       </c>
@@ -2987,11 +2966,11 @@
       <c r="N16" s="84"/>
       <c r="O16" s="54"/>
       <c r="P16" s="11"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="107"/>
-      <c r="S16" s="108"/>
+      <c r="Q16" s="107"/>
+      <c r="R16" s="108"/>
+      <c r="S16" s="109"/>
     </row>
-    <row r="17" ht="16.8" spans="1:19">
+    <row r="17" spans="1:19">
       <c r="A17" s="13"/>
       <c r="B17" s="10" t="s">
         <v>73</v>
@@ -3015,11 +2994,11 @@
       <c r="N17" s="84"/>
       <c r="O17" s="54"/>
       <c r="P17" s="11"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="108"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="109"/>
     </row>
-    <row r="18" ht="16.8" spans="1:19">
+    <row r="18" spans="1:19">
       <c r="A18" s="13"/>
       <c r="B18" s="10" t="s">
         <v>77</v>
@@ -3043,9 +3022,9 @@
       <c r="N18" s="84"/>
       <c r="O18" s="54"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="106"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="108"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="108"/>
+      <c r="S18" s="109"/>
     </row>
     <row r="19" ht="34" spans="1:19">
       <c r="A19" s="13"/>
@@ -3069,11 +3048,11 @@
       <c r="N19" s="84"/>
       <c r="O19" s="54"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="107"/>
-      <c r="S19" s="108"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="108"/>
+      <c r="S19" s="109"/>
     </row>
-    <row r="20" ht="16.8" spans="1:19">
+    <row r="20" spans="1:19">
       <c r="A20" s="19"/>
       <c r="B20" s="16" t="s">
         <v>40</v>
@@ -3098,7 +3077,7 @@
         <f>SUM(M17:M19)</f>
         <v>0</v>
       </c>
-      <c r="N20" s="84"/>
+      <c r="N20" s="88"/>
       <c r="O20" s="85" t="s">
         <v>40</v>
       </c>
@@ -3106,11 +3085,11 @@
         <f>SUM(P12:P19)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="107"/>
-      <c r="S20" s="108"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="109"/>
     </row>
-    <row r="21" ht="17" spans="1:19">
+    <row r="21" spans="1:19">
       <c r="A21" s="20" t="s">
         <v>82</v>
       </c>
@@ -3145,12 +3124,12 @@
       <c r="O21" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="108"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="108"/>
+      <c r="S21" s="109"/>
     </row>
-    <row r="22" ht="16.8" spans="1:19">
+    <row r="22" spans="1:19">
       <c r="A22" s="24"/>
       <c r="B22" s="20" t="s">
         <v>89</v>
@@ -3179,14 +3158,14 @@
       <c r="O22" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="112" t="s">
+      <c r="P22" s="89"/>
+      <c r="Q22" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="R22" s="110"/>
-      <c r="S22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="112"/>
     </row>
-    <row r="23" ht="16.8" spans="1:19">
+    <row r="23" spans="1:19">
       <c r="A23" s="26" t="s">
         <v>94</v>
       </c>
@@ -3200,12 +3179,12 @@
       <c r="O23" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="107"/>
-      <c r="S23" s="108"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="107"/>
+      <c r="R23" s="108"/>
+      <c r="S23" s="109"/>
     </row>
-    <row r="24" ht="16.8" spans="1:19">
+    <row r="24" spans="1:19">
       <c r="A24" s="26" t="s">
         <v>95</v>
       </c>
@@ -3221,13 +3200,13 @@
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="84"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="107"/>
-      <c r="S24" s="108"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="107"/>
+      <c r="R24" s="108"/>
+      <c r="S24" s="109"/>
     </row>
-    <row r="25" ht="16.8" spans="1:19">
+    <row r="25" spans="1:19">
       <c r="A25" s="28" t="s">
         <v>97</v>
       </c>
@@ -3247,84 +3226,84 @@
         <f>SUM(M21:M24)</f>
         <v>0</v>
       </c>
-      <c r="N25" s="90"/>
+      <c r="N25" s="91"/>
       <c r="O25" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="P25" s="91">
+      <c r="P25" s="92">
         <f>SUM(P21:P24)</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="107"/>
-      <c r="S25" s="108"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="108"/>
+      <c r="S25" s="109"/>
     </row>
-    <row r="26" ht="16.8" spans="11:19">
+    <row r="26" spans="11:19">
       <c r="K26" s="24" t="s">
         <v>82</v>
       </c>
       <c r="L26" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="M26" s="92">
+      <c r="M26" s="93">
         <f>M11+M16</f>
         <v>0</v>
       </c>
-      <c r="N26" s="93" t="s">
+      <c r="N26" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="O26" s="94"/>
-      <c r="P26" s="92">
+      <c r="O26" s="95"/>
+      <c r="P26" s="93">
         <f>F22</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="107"/>
-      <c r="S26" s="108"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="108"/>
+      <c r="S26" s="109"/>
     </row>
-    <row r="27" ht="16.8" spans="11:19">
+    <row r="27" spans="11:19">
       <c r="K27" s="75"/>
       <c r="L27" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="M27" s="95">
+      <c r="M27" s="96">
         <f>M28-P28</f>
         <v>0</v>
       </c>
-      <c r="N27" s="96" t="s">
+      <c r="N27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="O27" s="97"/>
-      <c r="P27" s="95">
+      <c r="O27" s="98"/>
+      <c r="P27" s="96">
         <f>(P26/12)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="106"/>
-      <c r="R27" s="107"/>
-      <c r="S27" s="108"/>
+      <c r="Q27" s="107"/>
+      <c r="R27" s="108"/>
+      <c r="S27" s="109"/>
     </row>
-    <row r="28" ht="16.8" spans="11:19">
+    <row r="28" spans="11:19">
       <c r="K28" s="77"/>
       <c r="L28" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="M28" s="98">
+      <c r="M28" s="99">
         <f>SUM(M8,M11,M16,M20,M25)</f>
         <v>0</v>
       </c>
-      <c r="N28" s="99" t="s">
+      <c r="N28" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="O28" s="100"/>
-      <c r="P28" s="98">
+      <c r="O28" s="101"/>
+      <c r="P28" s="99">
         <f>SUM(P25,P20,P11)</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="113"/>
-      <c r="R28" s="114"/>
-      <c r="S28" s="115"/>
+      <c r="Q28" s="114"/>
+      <c r="R28" s="115"/>
+      <c r="S28" s="116"/>
     </row>
-    <row r="29" ht="16.8" spans="11:19">
+    <row r="29" spans="11:19">
       <c r="K29" s="78" t="s">
         <v>94</v>
       </c>
@@ -3335,9 +3314,9 @@
       <c r="P29" s="27"/>
       <c r="Q29" s="27"/>
       <c r="R29" s="27"/>
-      <c r="S29" s="116"/>
+      <c r="S29" s="117"/>
     </row>
-    <row r="30" ht="16.8" spans="11:19">
+    <row r="30" spans="11:19">
       <c r="K30" s="79" t="s">
         <v>95</v>
       </c>
@@ -3348,9 +3327,9 @@
       <c r="P30" s="27"/>
       <c r="Q30" s="27"/>
       <c r="R30" s="27"/>
-      <c r="S30" s="116"/>
+      <c r="S30" s="117"/>
     </row>
-    <row r="31" ht="16.8" spans="11:19">
+    <row r="31" spans="11:19">
       <c r="K31" s="80" t="s">
         <v>97</v>
       </c>
@@ -3361,7 +3340,7 @@
       <c r="P31" s="29"/>
       <c r="Q31" s="29"/>
       <c r="R31" s="29"/>
-      <c r="S31" s="117"/>
+      <c r="S31" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="42">
